--- a/src/attributions/attributions_ig_traj_83.xlsx
+++ b/src/attributions/attributions_ig_traj_83.xlsx
@@ -1004,46 +1004,46 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.150796544916551</v>
+        <v>-0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.01663997046763071</v>
+        <v>-0.1207136776600321</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.2423024455985499</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.05250500416719624</v>
+        <v>0.005374176121488893</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1535744166322382</v>
+        <v>-0</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.02078876191204354</v>
+        <v>-0.07541815276151176</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>0.2149985903168879</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.05920781408143093</v>
+        <v>0.02294959987369615</v>
       </c>
       <c r="O2" t="n">
         <v>-0</v>
@@ -1055,22 +1055,22 @@
         <v>-0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S2" t="n">
-        <v>0.06167535353703617</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.005392555933611281</v>
+        <v>-0.1063339094882755</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>0.01394680953777648</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.04290989222315177</v>
+        <v>-0.01137358646709177</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -1079,82 +1079,82 @@
         <v>-0</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AA2" t="n">
         <v>-0</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.06335039033051426</v>
+        <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.01005666897150502</v>
+        <v>0.01658479900506774</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0</v>
+        <v>0.01208351808461532</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.01223850917932623</v>
+        <v>-0.0004440765254445339</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AH2" t="n">
         <v>0</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.03845116930934302</v>
+        <v>-0</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.02916816102400666</v>
+        <v>-0.03554061054620306</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>0.04021729487905552</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.03871284951457</v>
+        <v>0.07759915751275892</v>
       </c>
       <c r="AP2" t="n">
         <v>-0</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS2" t="n">
         <v>-0</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.03042435973951032</v>
+        <v>0</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0.0412527706723121</v>
+        <v>-0.1767592602726039</v>
       </c>
       <c r="AV2" t="n">
         <v>0</v>
       </c>
       <c r="AW2" t="n">
-        <v>0</v>
+        <v>0.07839264346614182</v>
       </c>
       <c r="AX2" t="n">
-        <v>-0.09488022493902243</v>
+        <v>-0.0108300864088781</v>
       </c>
       <c r="AY2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ2" t="n">
         <v>-0</v>
@@ -1163,49 +1163,49 @@
         <v>0</v>
       </c>
       <c r="BB2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.07091075989628086</v>
+        <v>-0</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.001518527211329883</v>
+        <v>-0.01477925423043125</v>
       </c>
       <c r="BE2" t="n">
         <v>0</v>
       </c>
       <c r="BF2" t="n">
-        <v>-0</v>
+        <v>0.09076894492908641</v>
       </c>
       <c r="BG2" t="n">
-        <v>-0.0098961222695931</v>
+        <v>0.02907409353348358</v>
       </c>
       <c r="BH2" t="n">
         <v>0</v>
       </c>
       <c r="BI2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK2" t="n">
         <v>-0</v>
       </c>
       <c r="BL2" t="n">
-        <v>-0.03978244186983647</v>
+        <v>0</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.005145231995712622</v>
+        <v>0.0300776765823109</v>
       </c>
       <c r="BN2" t="n">
         <v>0</v>
       </c>
       <c r="BO2" t="n">
-        <v>0</v>
+        <v>-0.05324375875133324</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.04674633683120064</v>
+        <v>-0.0816346210201504</v>
       </c>
       <c r="BQ2" t="n">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>0</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.05143014874942126</v>
+        <v>0</v>
       </c>
       <c r="BV2" t="n">
-        <v>-0.0330004768329725</v>
+        <v>-0.07852575589901419</v>
       </c>
       <c r="BW2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX2" t="n">
-        <v>0</v>
+        <v>0.01899427025985643</v>
       </c>
       <c r="BY2" t="n">
-        <v>-0.06589657839588815</v>
+        <v>-0.02409089098383337</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA2" t="n">
         <v>-0</v>
@@ -1247,46 +1247,46 @@
         <v>0</v>
       </c>
       <c r="CD2" t="n">
-        <v>-0.01828675294981645</v>
+        <v>-0</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.008105367427088749</v>
+        <v>0.0351828300481634</v>
       </c>
       <c r="CF2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CG2" t="n">
-        <v>0</v>
+        <v>-0.03740581133404869</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.02567781901900977</v>
+        <v>0.01959344589137578</v>
       </c>
       <c r="CI2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK2" t="n">
         <v>0</v>
       </c>
       <c r="CL2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.01790725342605013</v>
+        <v>-0</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.02516970000743352</v>
+        <v>-0.0109574491941789</v>
       </c>
       <c r="CO2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP2" t="n">
-        <v>-0</v>
+        <v>0.02695512644018117</v>
       </c>
       <c r="CQ2" t="n">
-        <v>-0.004730369893134571</v>
+        <v>0.04735313135584056</v>
       </c>
       <c r="CR2" t="n">
         <v>-0</v>
@@ -1295,25 +1295,25 @@
         <v>0</v>
       </c>
       <c r="CT2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CU2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CV2" t="n">
-        <v>-0.01064012135072198</v>
+        <v>-0</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.003551872646112106</v>
+        <v>0.04972248908286744</v>
       </c>
       <c r="CX2" t="n">
         <v>-0</v>
       </c>
       <c r="CY2" t="n">
-        <v>-0</v>
+        <v>-0.04294037083382247</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.02656635398337789</v>
+        <v>0.01300290137226959</v>
       </c>
       <c r="DA2" t="n">
         <v>-0</v>
@@ -1328,100 +1328,100 @@
         <v>0</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.00581292365495471</v>
+        <v>-0</v>
       </c>
       <c r="DF2" t="n">
-        <v>-0.02941142128948037</v>
+        <v>0.03367236878889769</v>
       </c>
       <c r="DG2" t="n">
         <v>-0</v>
       </c>
       <c r="DH2" t="n">
-        <v>0</v>
+        <v>0.01883731363827525</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.02200959289407872</v>
+        <v>0.04878514119211853</v>
       </c>
       <c r="DJ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM2" t="n">
         <v>-0</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.02072313186841382</v>
+        <v>0</v>
       </c>
       <c r="DO2" t="n">
-        <v>-0.01328223507578605</v>
+        <v>-0.01724963747544638</v>
       </c>
       <c r="DP2" t="n">
         <v>0</v>
       </c>
       <c r="DQ2" t="n">
-        <v>-0</v>
+        <v>0.04923827118775025</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.01614854290731629</v>
+        <v>-0.01741754025609108</v>
       </c>
       <c r="DS2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DT2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DU2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.004997999326484716</v>
+        <v>0</v>
       </c>
       <c r="DX2" t="n">
-        <v>-0.01043503479109457</v>
+        <v>-0.06232683367924737</v>
       </c>
       <c r="DY2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0</v>
+        <v>-0.008166624026259794</v>
       </c>
       <c r="EA2" t="n">
-        <v>-0.0207255402679214</v>
+        <v>-0.03432712046390961</v>
       </c>
       <c r="EB2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC2" t="n">
         <v>-0</v>
       </c>
       <c r="ED2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EE2" t="n">
         <v>-0</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.08348774146075087</v>
+        <v>-0</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.01102358165533618</v>
+        <v>0.04419106693749611</v>
       </c>
       <c r="EH2" t="n">
         <v>0</v>
       </c>
       <c r="EI2" t="n">
-        <v>0</v>
+        <v>0.0938691243097028</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.009482646552412665</v>
+        <v>-0.03337327474115563</v>
       </c>
       <c r="EK2" t="n">
         <v>-0</v>
@@ -1436,79 +1436,79 @@
         <v>0</v>
       </c>
       <c r="EO2" t="n">
-        <v>-0.001483588504060856</v>
+        <v>0</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.0401941396684562</v>
+        <v>0.05524633990337205</v>
       </c>
       <c r="EQ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER2" t="n">
-        <v>0</v>
+        <v>-0.05458425257331163</v>
       </c>
       <c r="ES2" t="n">
-        <v>-0.01698197532412551</v>
+        <v>0.0181611645046857</v>
       </c>
       <c r="ET2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EU2" t="n">
         <v>0</v>
       </c>
       <c r="EV2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW2" t="n">
         <v>0</v>
       </c>
       <c r="EX2" t="n">
-        <v>-0.02035864235112889</v>
+        <v>0</v>
       </c>
       <c r="EY2" t="n">
-        <v>-0.0002894718326310401</v>
+        <v>0.04501369381718781</v>
       </c>
       <c r="EZ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA2" t="n">
-        <v>0</v>
+        <v>-0.03439071615201791</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.02434358372194899</v>
+        <v>0.01959492007179191</v>
       </c>
       <c r="FC2" t="n">
         <v>0</v>
       </c>
       <c r="FD2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE2" t="n">
         <v>0</v>
       </c>
       <c r="FF2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.001161748753278337</v>
+        <v>-0</v>
       </c>
       <c r="FH2" t="n">
-        <v>-0.006504462636589624</v>
+        <v>-0.01283727506370472</v>
       </c>
       <c r="FI2" t="n">
         <v>0</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0</v>
+        <v>-0.006750623608650416</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.01153866186422719</v>
+        <v>0.01209768093104599</v>
       </c>
       <c r="FL2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FM2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN2" t="n">
         <v>0</v>
@@ -1517,25 +1517,25 @@
         <v>-0</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.07560791631739211</v>
+        <v>-0</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.01443803560806056</v>
+        <v>-0.01474334462705824</v>
       </c>
       <c r="FR2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS2" t="n">
-        <v>0</v>
+        <v>0.007985635772036061</v>
       </c>
       <c r="FT2" t="n">
-        <v>-0.005586574150499752</v>
+        <v>-0.00508330136040864</v>
       </c>
       <c r="FU2" t="n">
         <v>0</v>
       </c>
       <c r="FV2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FW2" t="n">
         <v>0</v>
@@ -1544,25 +1544,25 @@
         <v>-0</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.05079262784821456</v>
+        <v>0</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.07309854615626372</v>
+        <v>-0.03753255017633956</v>
       </c>
       <c r="GA2" t="n">
         <v>0</v>
       </c>
       <c r="GB2" t="n">
-        <v>-0</v>
+        <v>0.02009416768528361</v>
       </c>
       <c r="GC2" t="n">
         <v>-0</v>
       </c>
       <c r="GD2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GE2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF2" t="n">
         <v>-0</v>
